--- a/templates/stat_form.xlsx
+++ b/templates/stat_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss962\Documents\rad_status\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss962\Documents\rad_status\release\RadStats-win32-x64\resources\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB26816-7405-49DC-852A-A51653C2C58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6ACADB-7628-429D-94B1-7F2A6407C901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="1500" windowWidth="18188" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총 통계" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="항목별 통계" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'총 통계'!$A$1:$J$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'총 통계'!$A$1:$L$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,14 @@
   </si>
   <si>
     <t>2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1767,7 +1775,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1779,10 +1790,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2098,20 +2106,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="2" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" s="84" t="s">
         <v>66</v>
       </c>
@@ -2124,8 +2132,10 @@
       <c r="H1" s="84"/>
       <c r="I1" s="84"/>
       <c r="J1" s="84"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -2136,8 +2146,10 @@
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="84"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="84"/>
       <c r="B3" s="84"/>
       <c r="C3" s="84"/>
@@ -2148,8 +2160,10 @@
       <c r="H3" s="84"/>
       <c r="I3" s="84"/>
       <c r="J3" s="84"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="85" t="s">
         <v>75</v>
       </c>
@@ -2162,8 +2176,10 @@
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+    </row>
+    <row r="5" spans="1:12" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A5" s="56"/>
       <c r="B5" s="86" t="s">
         <v>67</v>
@@ -2181,11 +2197,15 @@
         <v>88</v>
       </c>
       <c r="I5" s="87"/>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="70" t="s">
         <v>5</v>
       </c>
@@ -2213,9 +2233,15 @@
       <c r="I6" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="89"/>
-    </row>
-    <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J6" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="89"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="55" t="s">
         <v>63</v>
       </c>
@@ -2227,9 +2253,11 @@
       <c r="G7" s="81"/>
       <c r="H7" s="71"/>
       <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
-    </row>
-    <row r="8" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+    </row>
+    <row r="8" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="54" t="s">
         <v>64</v>
       </c>
@@ -2241,9 +2269,11 @@
       <c r="G8" s="81"/>
       <c r="H8" s="71"/>
       <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
-    </row>
-    <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
+    </row>
+    <row r="9" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="54" t="s">
         <v>65</v>
       </c>
@@ -2255,9 +2285,11 @@
       <c r="G9" s="81"/>
       <c r="H9" s="71"/>
       <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+    </row>
+    <row r="10" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="54" t="s">
         <v>76</v>
       </c>
@@ -2269,9 +2301,11 @@
       <c r="G10" s="81"/>
       <c r="H10" s="71"/>
       <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
-    </row>
-    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
+    </row>
+    <row r="11" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="54" t="s">
         <v>2</v>
       </c>
@@ -2283,9 +2317,11 @@
       <c r="G11" s="81"/>
       <c r="H11" s="71"/>
       <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
-    </row>
-    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+    </row>
+    <row r="12" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="64" t="s">
         <v>9</v>
       </c>
@@ -2297,9 +2333,11 @@
       <c r="G12" s="82"/>
       <c r="H12" s="74"/>
       <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-    </row>
-    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76"/>
+    </row>
+    <row r="13" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="64" t="s">
         <v>86</v>
       </c>
@@ -2311,9 +2349,11 @@
       <c r="G13" s="82"/>
       <c r="H13" s="74"/>
       <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-    </row>
-    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="J13" s="74"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
+    </row>
+    <row r="14" spans="1:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="61" t="s">
         <v>91</v>
       </c>
@@ -2325,18 +2365,21 @@
       <c r="G14" s="83"/>
       <c r="H14" s="77"/>
       <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.6"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:J4"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2347,22 +2390,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="24.6875" style="1" customWidth="1"/>
-    <col min="2" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="94" t="s">
         <v>74</v>
       </c>
@@ -2371,11 +2414,12 @@
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
       <c r="F1" s="94"/>
-      <c r="G1" s="60"/>
+      <c r="G1" s="94"/>
       <c r="H1" s="60"/>
       <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="25"/>
       <c r="B2" s="95" t="s">
         <v>24</v>
@@ -2385,11 +2429,14 @@
       <c r="E2" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="92" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="62" t="s">
         <v>25</v>
       </c>
@@ -2405,9 +2452,12 @@
       <c r="E3" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:9" ht="23.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="93"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
         <v>77</v>
       </c>
@@ -2415,12 +2465,13 @@
       <c r="C4" s="26"/>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
-      <c r="F4" s="33">
+      <c r="F4" s="67"/>
+      <c r="G4" s="33">
         <f>SUM(B4:E4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="27" t="s">
         <v>78</v>
       </c>
@@ -2428,12 +2479,13 @@
       <c r="C5" s="26"/>
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
-      <c r="F5" s="33">
-        <f t="shared" ref="F5:F19" si="0">SUM(B5:E5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F5" s="67"/>
+      <c r="G5" s="33">
+        <f t="shared" ref="G5:G19" si="0">SUM(B5:E5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
         <v>79</v>
       </c>
@@ -2441,12 +2493,13 @@
       <c r="C6" s="26"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="33">
+      <c r="F6" s="67"/>
+      <c r="G6" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
         <v>33</v>
       </c>
@@ -2454,12 +2507,13 @@
       <c r="C7" s="26"/>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
-      <c r="F7" s="33">
+      <c r="F7" s="67"/>
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="27" t="s">
         <v>36</v>
       </c>
@@ -2467,12 +2521,13 @@
       <c r="C8" s="26"/>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
-      <c r="F8" s="33">
+      <c r="F8" s="67"/>
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="s">
         <v>37</v>
       </c>
@@ -2480,12 +2535,13 @@
       <c r="C9" s="26"/>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
-      <c r="F9" s="33">
+      <c r="F9" s="67"/>
+      <c r="G9" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="27" t="s">
         <v>39</v>
       </c>
@@ -2493,12 +2549,13 @@
       <c r="C10" s="26"/>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
-      <c r="F10" s="33">
+      <c r="F10" s="67"/>
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
         <v>38</v>
       </c>
@@ -2506,12 +2563,13 @@
       <c r="C11" s="26"/>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
-      <c r="F11" s="33">
+      <c r="F11" s="67"/>
+      <c r="G11" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
         <v>35</v>
       </c>
@@ -2519,12 +2577,13 @@
       <c r="C12" s="26"/>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
-      <c r="F12" s="33">
+      <c r="F12" s="67"/>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="27" t="s">
         <v>34</v>
       </c>
@@ -2532,12 +2591,13 @@
       <c r="C13" s="26"/>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
-      <c r="F13" s="33">
+      <c r="F13" s="67"/>
+      <c r="G13" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="27" t="s">
         <v>40</v>
       </c>
@@ -2545,12 +2605,13 @@
       <c r="C14" s="26"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
-      <c r="F14" s="33">
+      <c r="F14" s="67"/>
+      <c r="G14" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="27" t="s">
         <v>80</v>
       </c>
@@ -2558,12 +2619,13 @@
       <c r="C15" s="26"/>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
-      <c r="F15" s="33">
+      <c r="F15" s="67"/>
+      <c r="G15" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="27" t="s">
         <v>81</v>
       </c>
@@ -2571,34 +2633,37 @@
       <c r="C16" s="26"/>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
-      <c r="F16" s="33">
+      <c r="F16" s="67"/>
+      <c r="G16" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="27"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
-      <c r="F17" s="33">
+      <c r="F17" s="67"/>
+      <c r="G17" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="27"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="67"/>
       <c r="E18" s="67"/>
-      <c r="F18" s="33">
+      <c r="F18" s="67"/>
+      <c r="G18" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="27" t="s">
         <v>82</v>
       </c>
@@ -2606,12 +2671,13 @@
       <c r="C19" s="26"/>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
-      <c r="F19" s="33">
+      <c r="F19" s="67"/>
+      <c r="G19" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="28" t="s">
         <v>23</v>
       </c>
@@ -2631,15 +2697,16 @@
         <f>SUM(E4:E19)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="68"/>
+      <c r="G20" s="59">
         <f>SUM(B20:E20)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2650,32 +2717,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="8" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-    </row>
-    <row r="2" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="25"/>
       <c r="B2" s="34"/>
       <c r="C2" s="95" t="s">
@@ -2686,11 +2754,14 @@
       <c r="F2" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="92" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:12" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
@@ -2707,11 +2778,14 @@
       <c r="F3" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="99" t="s">
+      <c r="G3" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="99"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="100" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -2721,14 +2795,15 @@
       <c r="D4" s="32"/>
       <c r="E4" s="65"/>
       <c r="F4" s="65"/>
-      <c r="G4" s="51">
+      <c r="G4" s="65"/>
+      <c r="H4" s="51">
         <f>SUM(C4:D4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="100"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="101"/>
       <c r="B5" s="44" t="s">
         <v>44</v>
       </c>
@@ -2736,14 +2811,15 @@
       <c r="D5" s="26"/>
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
-      <c r="G5" s="35">
+      <c r="G5" s="67"/>
+      <c r="H5" s="35">
         <f>SUM(C5:D5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="100"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="101"/>
       <c r="B6" s="44" t="s">
         <v>45</v>
       </c>
@@ -2751,14 +2827,15 @@
       <c r="D6" s="26"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
-      <c r="G6" s="35">
+      <c r="G6" s="67"/>
+      <c r="H6" s="35">
         <f>SUM(C6:D6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="101"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="102"/>
       <c r="B7" s="46" t="s">
         <v>46</v>
       </c>
@@ -2775,17 +2852,21 @@
         <v>0</v>
       </c>
       <c r="F7" s="48">
-        <f t="shared" ref="F7" si="1">SUM(F4:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="49">
-        <f>SUM(G4:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="100" t="s">
+        <f t="shared" ref="F7:G7" si="1">SUM(F4:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <f>SUM(H4:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="45" t="s">
@@ -2795,18 +2876,19 @@
       <c r="D8" s="26"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
-      <c r="G8" s="35">
-        <f t="shared" ref="G8:G9" si="2">SUM(C8:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="98" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:H9" si="2">SUM(C8:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-    </row>
-    <row r="9" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="100"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+    </row>
+    <row r="9" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="101"/>
       <c r="B9" s="45" t="s">
         <v>47</v>
       </c>
@@ -2814,13 +2896,14 @@
       <c r="D9" s="26"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
-      <c r="G9" s="35">
+      <c r="G9" s="67"/>
+      <c r="H9" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="100"/>
+    <row r="10" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="101"/>
       <c r="B10" s="45" t="s">
         <v>48</v>
       </c>
@@ -2828,13 +2911,14 @@
       <c r="D10" s="26"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
-      <c r="G10" s="35">
+      <c r="G10" s="67"/>
+      <c r="H10" s="35">
         <f>SUM(C10:F10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="100"/>
+    <row r="11" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="101"/>
       <c r="B11" s="45" t="s">
         <v>49</v>
       </c>
@@ -2842,13 +2926,14 @@
       <c r="D11" s="26"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
-      <c r="G11" s="35">
-        <f t="shared" ref="G11:G43" si="3">SUM(C11:F11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="100"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="35">
+        <f t="shared" ref="H11:H43" si="3">SUM(C11:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="101"/>
       <c r="B12" s="45" t="s">
         <v>28</v>
       </c>
@@ -2856,14 +2941,15 @@
       <c r="D12" s="26"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
-      <c r="G12" s="35">
+      <c r="G12" s="67"/>
+      <c r="H12" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="101"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="102"/>
       <c r="B13" s="50" t="s">
         <v>46</v>
       </c>
@@ -2883,13 +2969,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="47">
+        <f t="shared" ref="G13" si="5">SUM(G8:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="100" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -2899,18 +2989,19 @@
       <c r="D14" s="32"/>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
-      <c r="G14" s="35">
+      <c r="G14" s="65"/>
+      <c r="H14" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="J14" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-    </row>
-    <row r="15" spans="1:11" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="100"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+    </row>
+    <row r="15" spans="1:12" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="101"/>
       <c r="B15" s="43" t="s">
         <v>52</v>
       </c>
@@ -2918,13 +3009,14 @@
       <c r="D15" s="26"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
-      <c r="G15" s="35">
+      <c r="G15" s="67"/>
+      <c r="H15" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="101"/>
+    <row r="16" spans="1:12" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A16" s="102"/>
       <c r="B16" s="50" t="s">
         <v>62</v>
       </c>
@@ -2933,24 +3025,28 @@
         <v>0</v>
       </c>
       <c r="D16" s="47">
-        <f t="shared" ref="D16:F16" si="5">SUM(D14:D15)</f>
+        <f t="shared" ref="D16:F16" si="6">SUM(D14:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F16" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <f t="shared" ref="G16" si="7">SUM(G14:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="99" t="s">
+    <row r="17" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="100" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="42" t="s">
@@ -2960,13 +3056,14 @@
       <c r="D17" s="32"/>
       <c r="E17" s="65"/>
       <c r="F17" s="65"/>
-      <c r="G17" s="35">
+      <c r="G17" s="65"/>
+      <c r="H17" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="101"/>
       <c r="B18" s="45" t="s">
         <v>83</v>
       </c>
@@ -2974,13 +3071,14 @@
       <c r="D18" s="26"/>
       <c r="E18" s="67"/>
       <c r="F18" s="67"/>
-      <c r="G18" s="35">
+      <c r="G18" s="67"/>
+      <c r="H18" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="101"/>
       <c r="B19" s="45" t="s">
         <v>54</v>
       </c>
@@ -2988,13 +3086,14 @@
       <c r="D19" s="26"/>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
-      <c r="G19" s="35">
+      <c r="G19" s="67"/>
+      <c r="H19" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="100"/>
+    <row r="20" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="101"/>
       <c r="B20" s="45" t="s">
         <v>84</v>
       </c>
@@ -3002,13 +3101,14 @@
       <c r="D20" s="26"/>
       <c r="E20" s="67"/>
       <c r="F20" s="67"/>
-      <c r="G20" s="35">
+      <c r="G20" s="67"/>
+      <c r="H20" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="100"/>
+    <row r="21" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="101"/>
       <c r="B21" s="45" t="s">
         <v>55</v>
       </c>
@@ -3016,13 +3116,14 @@
       <c r="D21" s="26"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
-      <c r="G21" s="35">
+      <c r="G21" s="67"/>
+      <c r="H21" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="101"/>
+    <row r="22" spans="1:10" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A22" s="102"/>
       <c r="B22" s="50" t="s">
         <v>46</v>
       </c>
@@ -3031,24 +3132,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="47">
-        <f t="shared" ref="D22:F22" si="6">SUM(D17:D21)</f>
+        <f t="shared" ref="D22:F22" si="8">SUM(D17:D21)</f>
         <v>0</v>
       </c>
       <c r="E22" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F22" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="47">
+        <f t="shared" ref="G22" si="9">SUM(G17:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="99" t="s">
+    <row r="23" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="100" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -3058,13 +3163,14 @@
       <c r="D23" s="32"/>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
-      <c r="G23" s="35">
+      <c r="G23" s="65"/>
+      <c r="H23" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="100"/>
+    <row r="24" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="101"/>
       <c r="B24" s="45" t="s">
         <v>83</v>
       </c>
@@ -3072,13 +3178,14 @@
       <c r="D24" s="26"/>
       <c r="E24" s="67"/>
       <c r="F24" s="67"/>
-      <c r="G24" s="35">
+      <c r="G24" s="67"/>
+      <c r="H24" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="100"/>
+    <row r="25" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="101"/>
       <c r="B25" s="45" t="s">
         <v>54</v>
       </c>
@@ -3086,13 +3193,14 @@
       <c r="D25" s="26"/>
       <c r="E25" s="67"/>
       <c r="F25" s="67"/>
-      <c r="G25" s="35">
+      <c r="G25" s="67"/>
+      <c r="H25" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="100"/>
+    <row r="26" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="101"/>
       <c r="B26" s="45" t="s">
         <v>84</v>
       </c>
@@ -3100,13 +3208,14 @@
       <c r="D26" s="26"/>
       <c r="E26" s="67"/>
       <c r="F26" s="67"/>
-      <c r="G26" s="35">
+      <c r="G26" s="67"/>
+      <c r="H26" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="101"/>
       <c r="B27" s="45" t="s">
         <v>55</v>
       </c>
@@ -3114,14 +3223,15 @@
       <c r="D27" s="26"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
-      <c r="G27" s="35">
+      <c r="G27" s="67"/>
+      <c r="H27" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="36"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="101"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A28" s="102"/>
       <c r="B28" s="50" t="s">
         <v>46</v>
       </c>
@@ -3130,24 +3240,28 @@
         <v>0</v>
       </c>
       <c r="D28" s="47">
-        <f t="shared" ref="D28:F28" si="7">SUM(D23:D27)</f>
+        <f t="shared" ref="D28:F28" si="10">SUM(D23:D27)</f>
         <v>0</v>
       </c>
       <c r="E28" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F28" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="47">
+        <f t="shared" ref="G28" si="11">SUM(G23:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="99" t="s">
+    <row r="29" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="100" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="42" t="s">
@@ -3157,13 +3271,14 @@
       <c r="D29" s="32"/>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
-      <c r="G29" s="35">
+      <c r="G29" s="65"/>
+      <c r="H29" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="100"/>
+    <row r="30" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="101"/>
       <c r="B30" s="45" t="s">
         <v>57</v>
       </c>
@@ -3171,13 +3286,14 @@
       <c r="D30" s="26"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
-      <c r="G30" s="35">
+      <c r="G30" s="67"/>
+      <c r="H30" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="100"/>
+    <row r="31" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="101"/>
       <c r="B31" s="45" t="s">
         <v>59</v>
       </c>
@@ -3185,13 +3301,14 @@
       <c r="D31" s="26"/>
       <c r="E31" s="67"/>
       <c r="F31" s="67"/>
-      <c r="G31" s="35">
+      <c r="G31" s="67"/>
+      <c r="H31" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="101"/>
       <c r="B32" s="45" t="s">
         <v>58</v>
       </c>
@@ -3199,13 +3316,14 @@
       <c r="D32" s="26"/>
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
-      <c r="G32" s="35">
+      <c r="G32" s="67"/>
+      <c r="H32" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="101"/>
       <c r="B33" s="45" t="s">
         <v>60</v>
       </c>
@@ -3213,13 +3331,14 @@
       <c r="D33" s="26"/>
       <c r="E33" s="67"/>
       <c r="F33" s="67"/>
-      <c r="G33" s="35">
+      <c r="G33" s="67"/>
+      <c r="H33" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="101"/>
       <c r="B34" s="45" t="s">
         <v>85</v>
       </c>
@@ -3227,13 +3346,14 @@
       <c r="D34" s="26"/>
       <c r="E34" s="67"/>
       <c r="F34" s="67"/>
-      <c r="G34" s="35">
+      <c r="G34" s="67"/>
+      <c r="H34" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A35" s="101"/>
+    <row r="35" spans="1:10" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A35" s="102"/>
       <c r="B35" s="50" t="s">
         <v>61</v>
       </c>
@@ -3253,13 +3373,17 @@
         <f>SUM(F29:F34)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="48">
+        <f>SUM(G29:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="99" t="s">
+    <row r="36" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="100" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="42" t="s">
@@ -3269,13 +3393,14 @@
       <c r="D36" s="32"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65"/>
-      <c r="G36" s="35">
+      <c r="G36" s="65"/>
+      <c r="H36" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="101"/>
       <c r="B37" s="45" t="s">
         <v>57</v>
       </c>
@@ -3283,13 +3408,14 @@
       <c r="D37" s="26"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
-      <c r="G37" s="35">
+      <c r="G37" s="67"/>
+      <c r="H37" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="100"/>
+    <row r="38" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="101"/>
       <c r="B38" s="45" t="s">
         <v>59</v>
       </c>
@@ -3297,13 +3423,14 @@
       <c r="D38" s="26"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
-      <c r="G38" s="35">
+      <c r="G38" s="67"/>
+      <c r="H38" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="100"/>
+    <row r="39" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="101"/>
       <c r="B39" s="45" t="s">
         <v>58</v>
       </c>
@@ -3311,13 +3438,14 @@
       <c r="D39" s="26"/>
       <c r="E39" s="67"/>
       <c r="F39" s="67"/>
-      <c r="G39" s="35">
+      <c r="G39" s="67"/>
+      <c r="H39" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="100"/>
+    <row r="40" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="101"/>
       <c r="B40" s="45" t="s">
         <v>60</v>
       </c>
@@ -3325,13 +3453,14 @@
       <c r="D40" s="26"/>
       <c r="E40" s="67"/>
       <c r="F40" s="67"/>
-      <c r="G40" s="35">
+      <c r="G40" s="67"/>
+      <c r="H40" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="100"/>
+    <row r="41" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="101"/>
       <c r="B41" s="45" t="s">
         <v>85</v>
       </c>
@@ -3339,14 +3468,15 @@
       <c r="D41" s="26"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
-      <c r="G41" s="35">
+      <c r="G41" s="67"/>
+      <c r="H41" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:9" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A42" s="101"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="102"/>
       <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
@@ -3366,12 +3496,16 @@
         <f>SUM(F36:F41)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="48">
+        <f>SUM(G36:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:10" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="41" t="s">
         <v>32</v>
       </c>
@@ -3380,12 +3514,13 @@
       <c r="D43" s="53"/>
       <c r="E43" s="69"/>
       <c r="F43" s="69"/>
-      <c r="G43" s="35">
+      <c r="G43" s="69"/>
+      <c r="H43" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:10" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="41" t="s">
         <v>23</v>
       </c>
@@ -3406,33 +3541,37 @@
         <f>SUM(F7,F13,F16,F22,F28,F35,F42,F43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="38">
+        <f>SUM(G7,G13,G16,G22,G28,G35,G42,G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="39">
         <f>SUM(C44:F44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="46" spans="1:9" ht="23.2" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="45" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="46" spans="1:10" ht="23.2" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G7" formula="1"/>
+    <ignoredError sqref="H7" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
